--- a/Coverage Survey/CAR/IVM+ALB+PZQ Coverage/cs_1_village.xlsx
+++ b/Coverage Survey/CAR/IVM+ALB+PZQ Coverage/cs_1_village.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>RAC Couverture ALB+IVM+PZQ (Mar. 2020) - 1. Village</t>
-  </si>
-  <si>
     <t>cs_mar2020_village</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>geopoint</t>
+  </si>
+  <si>
+    <t>RCA Couverture ALB+IVM+PZQ (Mar. 2020) - 1. Village</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -640,10 +640,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="9" t="s">
@@ -653,20 +653,20 @@
         <v>16</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -679,10 +679,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
@@ -695,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
@@ -711,38 +711,38 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
@@ -757,10 +757,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -842,35 +842,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C2">
         <v>20200313</v>

--- a/Coverage Survey/CAR/IVM+ALB+PZQ Coverage/cs_1_village.xlsx
+++ b/Coverage Survey/CAR/IVM+ALB+PZQ Coverage/cs_1_village.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="20580" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -47,9 +47,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -65,18 +62,9 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>label::French</t>
   </si>
   <si>
@@ -92,54 +80,9 @@
     <t>cs_mar2020_village</t>
   </si>
   <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>sous_district</t>
-  </si>
-  <si>
-    <t>code_operateur</t>
-  </si>
-  <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>village_code</t>
-  </si>
-  <si>
-    <t>gps</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
-    <t>Code opérateur</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
-    <t>Code du village</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>Sous district</t>
-  </si>
-  <si>
-    <t>Fonctionne mieux l’extérieure des bâtiments</t>
-  </si>
-  <si>
-    <t>Le code doit être composé d'un nombre à deux chiffres</t>
-  </si>
-  <si>
     <t>Bossembélé</t>
   </si>
   <si>
@@ -155,22 +98,19 @@
     <t>districts</t>
   </si>
   <si>
-    <t>select_one districts</t>
-  </si>
-  <si>
-    <t>regex(., '^[0-9]{3}$')</t>
-  </si>
-  <si>
-    <t>exemples: 100, 101,102</t>
-  </si>
-  <si>
-    <t>Le code doit être composé d'un nombre à trois chiffres</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>RCA Couverture ALB+IVM+PZQ (Mar. 2020) - 1. Village</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>once(random())</t>
+  </si>
+  <si>
+    <t>${ran} Observations</t>
+  </si>
+  <si>
+    <t>calculate</t>
   </si>
 </sst>
 </file>
@@ -234,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,9 +191,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -263,12 +200,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,10 +520,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -626,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
@@ -635,170 +568,70 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -831,46 +664,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,8 +868,8 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
@@ -1106,13 +939,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
@@ -1121,33 +954,33 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
@@ -1156,23 +989,23 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
@@ -1181,23 +1014,23 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
@@ -1206,13 +1039,13 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
@@ -1237,7 +1070,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1250,31 +1083,31 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>20200313</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3"/>
     </row>
